--- a/04. Useful Uses of Useful Functions.xlsx
+++ b/04. Useful Uses of Useful Functions.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\us20726\Documents\excellent_at_excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\excellent_at_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EADA01B1-7801-4015-9885-AB8D1B762370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="11700"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SUMPRODUCT" sheetId="9" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="27">
   <si>
     <t>Sales Region</t>
   </si>
@@ -102,12 +103,15 @@
   </si>
   <si>
     <t>=IF([@Active]="N","",SUMPRODUCT(([@[Sales Region]]=[Sales Region])*([@Sales]&lt;[Sales])*([@Active]=[Active]))+1)</t>
+  </si>
+  <si>
+    <t>This works because of the internals of the SUMPRODUCT function. Ask me for details and I'll explain it.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -212,21 +216,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F11" totalsRowShown="0" dataDxfId="6">
-  <autoFilter ref="A1:F11"/>
-  <sortState ref="A2:F11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="salesData" displayName="salesData" ref="A1:F11" totalsRowShown="0" dataDxfId="6">
+  <autoFilter ref="A1:F11" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F11">
     <sortCondition ref="A1:A11"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" name="Sales Region" dataDxfId="5"/>
-    <tableColumn id="2" name="Salesman" dataDxfId="4"/>
-    <tableColumn id="3" name="Sales" dataDxfId="3"/>
-    <tableColumn id="4" name="Active" dataDxfId="2"/>
-    <tableColumn id="5" name="RegionRank" dataDxfId="1">
-      <calculatedColumnFormula>SUMPRODUCT((Table1[[#This Row],[Sales Region]]=Table1[Sales Region])*(Table1[[#This Row],[Sales]]&lt;Table1[Sales]))+1</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Sales Region" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Salesman" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Sales" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Active" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="RegionRank" dataDxfId="1">
+      <calculatedColumnFormula>SUMPRODUCT((salesData[[#This Row],[Sales Region]]=salesData[Sales Region])*(salesData[[#This Row],[Sales]]&lt;salesData[Sales]))+1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="RegionRankActive" dataDxfId="0">
-      <calculatedColumnFormula>IF(Table1[[#This Row],[Active]]="N","",SUMPRODUCT((Table1[[#This Row],[Sales Region]]=Table1[Sales Region])*(Table1[[#This Row],[Sales]]&lt;Table1[Sales])*(Table1[[#This Row],[Active]]=Table1[Active]))+1)</calculatedColumnFormula>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="RegionRankActive" dataDxfId="0">
+      <calculatedColumnFormula>IF(salesData[[#This Row],[Active]]="N","",SUMPRODUCT((salesData[[#This Row],[Sales Region]]=salesData[Sales Region])*(salesData[[#This Row],[Sales]]&lt;salesData[Sales])*(salesData[[#This Row],[Active]]=salesData[Active]))+1)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -495,10 +499,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -542,11 +548,11 @@
         <v>11</v>
       </c>
       <c r="E2" s="4">
-        <f>SUMPRODUCT((Table1[[#This Row],[Sales Region]]=Table1[Sales Region])*(Table1[[#This Row],[Sales]]&lt;Table1[Sales]))+1</f>
+        <f>SUMPRODUCT((salesData[[#This Row],[Sales Region]]=salesData[Sales Region])*(salesData[[#This Row],[Sales]]&lt;salesData[Sales]))+1</f>
         <v>1</v>
       </c>
       <c r="F2" s="4">
-        <f>IF(Table1[[#This Row],[Active]]="N","",SUMPRODUCT((Table1[[#This Row],[Sales Region]]=Table1[Sales Region])*(Table1[[#This Row],[Sales]]&lt;Table1[Sales])*(Table1[[#This Row],[Active]]=Table1[Active]))+1)</f>
+        <f>IF(salesData[[#This Row],[Active]]="N","",SUMPRODUCT((salesData[[#This Row],[Sales Region]]=salesData[Sales Region])*(salesData[[#This Row],[Sales]]&lt;salesData[Sales])*(salesData[[#This Row],[Active]]=salesData[Active]))+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -564,11 +570,11 @@
         <v>11</v>
       </c>
       <c r="E3" s="4">
-        <f>SUMPRODUCT((Table1[[#This Row],[Sales Region]]=Table1[Sales Region])*(Table1[[#This Row],[Sales]]&lt;Table1[Sales]))+1</f>
+        <f>SUMPRODUCT((salesData[[#This Row],[Sales Region]]=salesData[Sales Region])*(salesData[[#This Row],[Sales]]&lt;salesData[Sales]))+1</f>
         <v>3</v>
       </c>
       <c r="F3" s="4">
-        <f>IF(Table1[[#This Row],[Active]]="N","",SUMPRODUCT((Table1[[#This Row],[Sales Region]]=Table1[Sales Region])*(Table1[[#This Row],[Sales]]&lt;Table1[Sales])*(Table1[[#This Row],[Active]]=Table1[Active]))+1)</f>
+        <f>IF(salesData[[#This Row],[Active]]="N","",SUMPRODUCT((salesData[[#This Row],[Sales Region]]=salesData[Sales Region])*(salesData[[#This Row],[Sales]]&lt;salesData[Sales])*(salesData[[#This Row],[Active]]=salesData[Active]))+1)</f>
         <v>2</v>
       </c>
     </row>
@@ -586,11 +592,11 @@
         <v>12</v>
       </c>
       <c r="E4" s="4">
-        <f>SUMPRODUCT((Table1[[#This Row],[Sales Region]]=Table1[Sales Region])*(Table1[[#This Row],[Sales]]&lt;Table1[Sales]))+1</f>
+        <f>SUMPRODUCT((salesData[[#This Row],[Sales Region]]=salesData[Sales Region])*(salesData[[#This Row],[Sales]]&lt;salesData[Sales]))+1</f>
         <v>2</v>
       </c>
       <c r="F4" s="4" t="str">
-        <f>IF(Table1[[#This Row],[Active]]="N","",SUMPRODUCT((Table1[[#This Row],[Sales Region]]=Table1[Sales Region])*(Table1[[#This Row],[Sales]]&lt;Table1[Sales])*(Table1[[#This Row],[Active]]=Table1[Active]))+1)</f>
+        <f>IF(salesData[[#This Row],[Active]]="N","",SUMPRODUCT((salesData[[#This Row],[Sales Region]]=salesData[Sales Region])*(salesData[[#This Row],[Sales]]&lt;salesData[Sales])*(salesData[[#This Row],[Active]]=salesData[Active]))+1)</f>
         <v/>
       </c>
     </row>
@@ -608,11 +614,11 @@
         <v>11</v>
       </c>
       <c r="E5" s="4">
-        <f>SUMPRODUCT((Table1[[#This Row],[Sales Region]]=Table1[Sales Region])*(Table1[[#This Row],[Sales]]&lt;Table1[Sales]))+1</f>
+        <f>SUMPRODUCT((salesData[[#This Row],[Sales Region]]=salesData[Sales Region])*(salesData[[#This Row],[Sales]]&lt;salesData[Sales]))+1</f>
         <v>2</v>
       </c>
       <c r="F5" s="4">
-        <f>IF(Table1[[#This Row],[Active]]="N","",SUMPRODUCT((Table1[[#This Row],[Sales Region]]=Table1[Sales Region])*(Table1[[#This Row],[Sales]]&lt;Table1[Sales])*(Table1[[#This Row],[Active]]=Table1[Active]))+1)</f>
+        <f>IF(salesData[[#This Row],[Active]]="N","",SUMPRODUCT((salesData[[#This Row],[Sales Region]]=salesData[Sales Region])*(salesData[[#This Row],[Sales]]&lt;salesData[Sales])*(salesData[[#This Row],[Active]]=salesData[Active]))+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -630,11 +636,11 @@
         <v>11</v>
       </c>
       <c r="E6" s="4">
-        <f>SUMPRODUCT((Table1[[#This Row],[Sales Region]]=Table1[Sales Region])*(Table1[[#This Row],[Sales]]&lt;Table1[Sales]))+1</f>
+        <f>SUMPRODUCT((salesData[[#This Row],[Sales Region]]=salesData[Sales Region])*(salesData[[#This Row],[Sales]]&lt;salesData[Sales]))+1</f>
         <v>3</v>
       </c>
       <c r="F6" s="4">
-        <f>IF(Table1[[#This Row],[Active]]="N","",SUMPRODUCT((Table1[[#This Row],[Sales Region]]=Table1[Sales Region])*(Table1[[#This Row],[Sales]]&lt;Table1[Sales])*(Table1[[#This Row],[Active]]=Table1[Active]))+1)</f>
+        <f>IF(salesData[[#This Row],[Active]]="N","",SUMPRODUCT((salesData[[#This Row],[Sales Region]]=salesData[Sales Region])*(salesData[[#This Row],[Sales]]&lt;salesData[Sales])*(salesData[[#This Row],[Active]]=salesData[Active]))+1)</f>
         <v>2</v>
       </c>
     </row>
@@ -652,11 +658,11 @@
         <v>11</v>
       </c>
       <c r="E7" s="4">
-        <f>SUMPRODUCT((Table1[[#This Row],[Sales Region]]=Table1[Sales Region])*(Table1[[#This Row],[Sales]]&lt;Table1[Sales]))+1</f>
+        <f>SUMPRODUCT((salesData[[#This Row],[Sales Region]]=salesData[Sales Region])*(salesData[[#This Row],[Sales]]&lt;salesData[Sales]))+1</f>
         <v>4</v>
       </c>
       <c r="F7" s="4">
-        <f>IF(Table1[[#This Row],[Active]]="N","",SUMPRODUCT((Table1[[#This Row],[Sales Region]]=Table1[Sales Region])*(Table1[[#This Row],[Sales]]&lt;Table1[Sales])*(Table1[[#This Row],[Active]]=Table1[Active]))+1)</f>
+        <f>IF(salesData[[#This Row],[Active]]="N","",SUMPRODUCT((salesData[[#This Row],[Sales Region]]=salesData[Sales Region])*(salesData[[#This Row],[Sales]]&lt;salesData[Sales])*(salesData[[#This Row],[Active]]=salesData[Active]))+1)</f>
         <v>3</v>
       </c>
     </row>
@@ -674,11 +680,11 @@
         <v>12</v>
       </c>
       <c r="E8" s="4">
-        <f>SUMPRODUCT((Table1[[#This Row],[Sales Region]]=Table1[Sales Region])*(Table1[[#This Row],[Sales]]&lt;Table1[Sales]))+1</f>
+        <f>SUMPRODUCT((salesData[[#This Row],[Sales Region]]=salesData[Sales Region])*(salesData[[#This Row],[Sales]]&lt;salesData[Sales]))+1</f>
         <v>1</v>
       </c>
       <c r="F8" s="4" t="str">
-        <f>IF(Table1[[#This Row],[Active]]="N","",SUMPRODUCT((Table1[[#This Row],[Sales Region]]=Table1[Sales Region])*(Table1[[#This Row],[Sales]]&lt;Table1[Sales])*(Table1[[#This Row],[Active]]=Table1[Active]))+1)</f>
+        <f>IF(salesData[[#This Row],[Active]]="N","",SUMPRODUCT((salesData[[#This Row],[Sales Region]]=salesData[Sales Region])*(salesData[[#This Row],[Sales]]&lt;salesData[Sales])*(salesData[[#This Row],[Active]]=salesData[Active]))+1)</f>
         <v/>
       </c>
     </row>
@@ -696,11 +702,11 @@
         <v>11</v>
       </c>
       <c r="E9" s="4">
-        <f>SUMPRODUCT((Table1[[#This Row],[Sales Region]]=Table1[Sales Region])*(Table1[[#This Row],[Sales]]&lt;Table1[Sales]))+1</f>
+        <f>SUMPRODUCT((salesData[[#This Row],[Sales Region]]=salesData[Sales Region])*(salesData[[#This Row],[Sales]]&lt;salesData[Sales]))+1</f>
         <v>1</v>
       </c>
       <c r="F9" s="4">
-        <f>IF(Table1[[#This Row],[Active]]="N","",SUMPRODUCT((Table1[[#This Row],[Sales Region]]=Table1[Sales Region])*(Table1[[#This Row],[Sales]]&lt;Table1[Sales])*(Table1[[#This Row],[Active]]=Table1[Active]))+1)</f>
+        <f>IF(salesData[[#This Row],[Active]]="N","",SUMPRODUCT((salesData[[#This Row],[Sales Region]]=salesData[Sales Region])*(salesData[[#This Row],[Sales]]&lt;salesData[Sales])*(salesData[[#This Row],[Active]]=salesData[Active]))+1)</f>
         <v>1</v>
       </c>
     </row>
@@ -718,11 +724,11 @@
         <v>11</v>
       </c>
       <c r="E10" s="4">
-        <f>SUMPRODUCT((Table1[[#This Row],[Sales Region]]=Table1[Sales Region])*(Table1[[#This Row],[Sales]]&lt;Table1[Sales]))+1</f>
+        <f>SUMPRODUCT((salesData[[#This Row],[Sales Region]]=salesData[Sales Region])*(salesData[[#This Row],[Sales]]&lt;salesData[Sales]))+1</f>
         <v>3</v>
       </c>
       <c r="F10" s="4">
-        <f>IF(Table1[[#This Row],[Active]]="N","",SUMPRODUCT((Table1[[#This Row],[Sales Region]]=Table1[Sales Region])*(Table1[[#This Row],[Sales]]&lt;Table1[Sales])*(Table1[[#This Row],[Active]]=Table1[Active]))+1)</f>
+        <f>IF(salesData[[#This Row],[Active]]="N","",SUMPRODUCT((salesData[[#This Row],[Sales Region]]=salesData[Sales Region])*(salesData[[#This Row],[Sales]]&lt;salesData[Sales])*(salesData[[#This Row],[Active]]=salesData[Active]))+1)</f>
         <v>2</v>
       </c>
     </row>
@@ -740,11 +746,11 @@
         <v>12</v>
       </c>
       <c r="E11" s="4">
-        <f>SUMPRODUCT((Table1[[#This Row],[Sales Region]]=Table1[Sales Region])*(Table1[[#This Row],[Sales]]&lt;Table1[Sales]))+1</f>
+        <f>SUMPRODUCT((salesData[[#This Row],[Sales Region]]=salesData[Sales Region])*(salesData[[#This Row],[Sales]]&lt;salesData[Sales]))+1</f>
         <v>2</v>
       </c>
       <c r="F11" s="4" t="str">
-        <f>IF(Table1[[#This Row],[Active]]="N","",SUMPRODUCT((Table1[[#This Row],[Sales Region]]=Table1[Sales Region])*(Table1[[#This Row],[Sales]]&lt;Table1[Sales])*(Table1[[#This Row],[Active]]=Table1[Active]))+1)</f>
+        <f>IF(salesData[[#This Row],[Active]]="N","",SUMPRODUCT((salesData[[#This Row],[Sales Region]]=salesData[Sales Region])*(salesData[[#This Row],[Sales]]&lt;salesData[Sales])*(salesData[[#This Row],[Active]]=salesData[Active]))+1)</f>
         <v/>
       </c>
     </row>
@@ -781,7 +787,7 @@
         <v>13</v>
       </c>
       <c r="C17" s="8">
-        <f>SUMPRODUCT((1/COUNTIF(Table1[Salesman],Table1[Salesman]&amp;"")))</f>
+        <f>SUMPRODUCT((1/COUNTIF(salesData[Salesman],salesData[Salesman]&amp;"")))</f>
         <v>4</v>
       </c>
     </row>
@@ -829,6 +835,11 @@
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B28" s="7" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/04. Useful Uses of Useful Functions.xlsx
+++ b/04. Useful Uses of Useful Functions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\excellent_at_excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EADA01B1-7801-4015-9885-AB8D1B762370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AEE245D-0EBF-488A-9D4C-38002A03245C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SUMPRODUCT" sheetId="9" r:id="rId1"/>
@@ -20,12 +20,19 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="50">
   <si>
     <t>Sales Region</t>
   </si>
@@ -75,15 +82,9 @@
     <t>We have 4 distinct sales reps over 3 distinct sales regions.</t>
   </si>
   <si>
-    <t>We can use SUMPRODUCT() to determine how many uique entries we have in a column.</t>
-  </si>
-  <si>
     <t>Example:</t>
   </si>
   <si>
-    <t>For reporting purposes we want to rank them across region and active status.</t>
-  </si>
-  <si>
     <t>Using SUMPRODUCT() to Count Distinct Values:</t>
   </si>
   <si>
@@ -106,13 +107,93 @@
   </si>
   <si>
     <t>This works because of the internals of the SUMPRODUCT function. Ask me for details and I'll explain it.</t>
+  </si>
+  <si>
+    <t>For reporting purposes we want to rank them by region and active status.</t>
+  </si>
+  <si>
+    <t>Employee Name</t>
+  </si>
+  <si>
+    <t>Cost Center</t>
+  </si>
+  <si>
+    <t>FTE</t>
+  </si>
+  <si>
+    <t>Base Salary</t>
+  </si>
+  <si>
+    <t>Allocation 01</t>
+  </si>
+  <si>
+    <t>Allocation 02</t>
+  </si>
+  <si>
+    <t>Allocation 03</t>
+  </si>
+  <si>
+    <t>1887-0287</t>
+  </si>
+  <si>
+    <t>1887-0285</t>
+  </si>
+  <si>
+    <t>Billy BigBrain</t>
+  </si>
+  <si>
+    <t>Gina GalaxyBrain</t>
+  </si>
+  <si>
+    <t>Peter PeaBrain</t>
+  </si>
+  <si>
+    <t>Nancy NoBrain</t>
+  </si>
+  <si>
+    <t>Gary GreatBrain</t>
+  </si>
+  <si>
+    <t>Spencer SmallBrain</t>
+  </si>
+  <si>
+    <t>Norma NomalBrain</t>
+  </si>
+  <si>
+    <t>Hellen HellaBrain</t>
+  </si>
+  <si>
+    <t>Uma UltraBrain</t>
+  </si>
+  <si>
+    <t>Metroid MotherBrain</t>
+  </si>
+  <si>
+    <t>Total Salary</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Conditional SUMPRODUCT()</t>
+  </si>
+  <si>
+    <t>Equivalency tests can be used to make SUMPRODUCT conditional.</t>
+  </si>
+  <si>
+    <t>We can use SUMPRODUCT() to determine how many unique entries we have in a column.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="3">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,6 +205,19 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -143,7 +237,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -151,11 +245,112 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -173,11 +368,139 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="13">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -216,22 +539,38 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="salesData" displayName="salesData" ref="A1:F11" totalsRowShown="0" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="salesData" displayName="salesData" ref="A1:F11" totalsRowShown="0" dataDxfId="12">
   <autoFilter ref="A1:F11" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F11">
     <sortCondition ref="A1:A11"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Sales Region" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Salesman" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Sales" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Active" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="RegionRank" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Sales Region" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Salesman" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Sales" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Active" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="RegionRank" dataDxfId="7">
       <calculatedColumnFormula>SUMPRODUCT((salesData[[#This Row],[Sales Region]]=salesData[Sales Region])*(salesData[[#This Row],[Sales]]&lt;salesData[Sales]))+1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="RegionRankActive" dataDxfId="0">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="RegionRankActive" dataDxfId="6">
       <calculatedColumnFormula>IF(salesData[[#This Row],[Active]]="N","",SUMPRODUCT((salesData[[#This Row],[Sales Region]]=salesData[Sales Region])*(salesData[[#This Row],[Sales]]&lt;salesData[Sales])*(salesData[[#This Row],[Active]]=salesData[Active]))+1)</calculatedColumnFormula>
     </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2F7AD114-E9AA-4370-96BD-89402A1C4165}" name="allocationData" displayName="allocationData" ref="K1:Q11" totalsRowShown="0">
+  <autoFilter ref="K1:Q11" xr:uid="{2F7AD114-E9AA-4370-96BD-89402A1C4165}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{76DA0629-A482-49B6-B8DD-D1F3E419A405}" name="Cost Center" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{8F18D705-0502-439C-A6EE-B2E14C334637}" name="Allocation 01" dataDxfId="1" dataCellStyle="Percent"/>
+    <tableColumn id="3" xr3:uid="{603076DE-89A2-4148-B0BB-BE084295D7B7}" name="Allocation 02" dataDxfId="5" dataCellStyle="Percent"/>
+    <tableColumn id="4" xr3:uid="{5F038998-FF65-4053-9D1F-50D973DCC17C}" name="Allocation 03" dataDxfId="4" dataCellStyle="Percent"/>
+    <tableColumn id="5" xr3:uid="{0AC78A8B-D41D-4807-A8D7-90D81CFA64FD}" name="Employee Name"/>
+    <tableColumn id="6" xr3:uid="{B75165E3-7036-4F7F-982D-2B0C3D0A6A1D}" name="FTE" dataDxfId="3" dataCellStyle="Comma"/>
+    <tableColumn id="7" xr3:uid="{E35C4E90-4F5A-42A7-9CEA-70E7934FF334}" name="Base Salary" dataDxfId="2" dataCellStyle="Currency"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -500,21 +839,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.265625" customWidth="1"/>
+    <col min="2" max="2" width="11.59765625" customWidth="1"/>
+    <col min="5" max="5" width="14.1328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.59765625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" customWidth="1"/>
+    <col min="12" max="14" width="13" customWidth="1"/>
+    <col min="15" max="15" width="17.796875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -528,13 +872,34 @@
         <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="K1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -555,8 +920,29 @@
         <f>IF(salesData[[#This Row],[Active]]="N","",SUMPRODUCT((salesData[[#This Row],[Sales Region]]=salesData[Sales Region])*(salesData[[#This Row],[Sales]]&lt;salesData[Sales])*(salesData[[#This Row],[Active]]=salesData[Active]))+1)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="K2" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" s="9">
+        <v>0.27432819464888197</v>
+      </c>
+      <c r="M2" s="9">
+        <v>0.27040000000000003</v>
+      </c>
+      <c r="N2" s="9">
+        <v>0.455271805351118</v>
+      </c>
+      <c r="O2" t="s">
+        <v>35</v>
+      </c>
+      <c r="P2" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="10">
+        <v>110432</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -577,8 +963,29 @@
         <f>IF(salesData[[#This Row],[Active]]="N","",SUMPRODUCT((salesData[[#This Row],[Sales Region]]=salesData[Sales Region])*(salesData[[#This Row],[Sales]]&lt;salesData[Sales])*(salesData[[#This Row],[Active]]=salesData[Active]))+1)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="K3" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="9">
+        <v>0.94698033461211373</v>
+      </c>
+      <c r="M3" s="9">
+        <v>0</v>
+      </c>
+      <c r="N3" s="9">
+        <v>5.3019665387886272E-2</v>
+      </c>
+      <c r="O3" t="s">
+        <v>36</v>
+      </c>
+      <c r="P3" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="10">
+        <v>116908</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
@@ -599,8 +1006,29 @@
         <f>IF(salesData[[#This Row],[Active]]="N","",SUMPRODUCT((salesData[[#This Row],[Sales Region]]=salesData[Sales Region])*(salesData[[#This Row],[Sales]]&lt;salesData[Sales])*(salesData[[#This Row],[Active]]=salesData[Active]))+1)</f>
         <v/>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="K4" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" s="9">
+        <v>0.45070190816776784</v>
+      </c>
+      <c r="M4" s="9">
+        <v>1.9600000000000003E-2</v>
+      </c>
+      <c r="N4" s="9">
+        <v>0.52969809183223215</v>
+      </c>
+      <c r="O4" t="s">
+        <v>37</v>
+      </c>
+      <c r="P4" s="11">
+        <v>0.75</v>
+      </c>
+      <c r="Q4" s="10">
+        <v>147550</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
@@ -621,8 +1049,29 @@
         <f>IF(salesData[[#This Row],[Active]]="N","",SUMPRODUCT((salesData[[#This Row],[Sales Region]]=salesData[Sales Region])*(salesData[[#This Row],[Sales]]&lt;salesData[Sales])*(salesData[[#This Row],[Active]]=salesData[Active]))+1)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="K5" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" s="9">
+        <v>0.51303294399164845</v>
+      </c>
+      <c r="M5" s="9">
+        <v>5.7599999999999998E-2</v>
+      </c>
+      <c r="N5" s="9">
+        <v>0.42936705600835157</v>
+      </c>
+      <c r="O5" t="s">
+        <v>38</v>
+      </c>
+      <c r="P5" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="10">
+        <v>58363</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A6" s="4" t="s">
         <v>2</v>
       </c>
@@ -643,8 +1092,29 @@
         <f>IF(salesData[[#This Row],[Active]]="N","",SUMPRODUCT((salesData[[#This Row],[Sales Region]]=salesData[Sales Region])*(salesData[[#This Row],[Sales]]&lt;salesData[Sales])*(salesData[[#This Row],[Active]]=salesData[Active]))+1)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="K6" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="L6" s="9">
+        <v>0.67459036137306905</v>
+      </c>
+      <c r="M6" s="9">
+        <v>6.4000000000000003E-3</v>
+      </c>
+      <c r="N6" s="9">
+        <v>0.31900963862693099</v>
+      </c>
+      <c r="O6" t="s">
+        <v>39</v>
+      </c>
+      <c r="P6" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="Q6" s="10">
+        <v>105441</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A7" s="4" t="s">
         <v>2</v>
       </c>
@@ -665,8 +1135,29 @@
         <f>IF(salesData[[#This Row],[Active]]="N","",SUMPRODUCT((salesData[[#This Row],[Sales Region]]=salesData[Sales Region])*(salesData[[#This Row],[Sales]]&lt;salesData[Sales])*(salesData[[#This Row],[Active]]=salesData[Active]))+1)</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="K7" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="L7" s="9">
+        <v>9.4338323620607345E-2</v>
+      </c>
+      <c r="M7" s="9">
+        <v>0.79210000000000003</v>
+      </c>
+      <c r="N7" s="9">
+        <v>0.11356167637939263</v>
+      </c>
+      <c r="O7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P7" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="10">
+        <v>73565</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A8" s="4" t="s">
         <v>2</v>
       </c>
@@ -687,8 +1178,29 @@
         <f>IF(salesData[[#This Row],[Active]]="N","",SUMPRODUCT((salesData[[#This Row],[Sales Region]]=salesData[Sales Region])*(salesData[[#This Row],[Sales]]&lt;salesData[Sales])*(salesData[[#This Row],[Active]]=salesData[Active]))+1)</f>
         <v/>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="K8" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="L8" s="9">
+        <v>0.34238895875934544</v>
+      </c>
+      <c r="M8" s="9">
+        <v>0.11560000000000002</v>
+      </c>
+      <c r="N8" s="9">
+        <v>0.54201104124065447</v>
+      </c>
+      <c r="O8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P8" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="10">
+        <v>48464</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A9" s="4" t="s">
         <v>3</v>
       </c>
@@ -709,8 +1221,29 @@
         <f>IF(salesData[[#This Row],[Active]]="N","",SUMPRODUCT((salesData[[#This Row],[Sales Region]]=salesData[Sales Region])*(salesData[[#This Row],[Sales]]&lt;salesData[Sales])*(salesData[[#This Row],[Active]]=salesData[Active]))+1)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="K9" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="L9" s="9">
+        <v>0.66236621143569552</v>
+      </c>
+      <c r="M9" s="9">
+        <v>0.09</v>
+      </c>
+      <c r="N9" s="9">
+        <v>0.24763378856430451</v>
+      </c>
+      <c r="O9" t="s">
+        <v>42</v>
+      </c>
+      <c r="P9" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="Q9" s="10">
+        <v>112088</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A10" s="4" t="s">
         <v>3</v>
       </c>
@@ -731,8 +1264,29 @@
         <f>IF(salesData[[#This Row],[Active]]="N","",SUMPRODUCT((salesData[[#This Row],[Sales Region]]=salesData[Sales Region])*(salesData[[#This Row],[Sales]]&lt;salesData[Sales])*(salesData[[#This Row],[Active]]=salesData[Active]))+1)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="K10" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="L10" s="9">
+        <v>9.7970115167706054E-2</v>
+      </c>
+      <c r="M10" s="9">
+        <v>0.53289999999999993</v>
+      </c>
+      <c r="N10" s="9">
+        <v>0.36912988483229403</v>
+      </c>
+      <c r="O10" t="s">
+        <v>43</v>
+      </c>
+      <c r="P10" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="10">
+        <v>75065</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A11" s="4" t="s">
         <v>3</v>
       </c>
@@ -753,8 +1307,29 @@
         <f>IF(salesData[[#This Row],[Active]]="N","",SUMPRODUCT((salesData[[#This Row],[Sales Region]]=salesData[Sales Region])*(salesData[[#This Row],[Sales]]&lt;salesData[Sales])*(salesData[[#This Row],[Active]]=salesData[Active]))+1)</f>
         <v/>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="K11" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="L11" s="9">
+        <v>0.16256337048089459</v>
+      </c>
+      <c r="M11" s="9">
+        <v>5.7599999999999998E-2</v>
+      </c>
+      <c r="N11" s="9">
+        <v>0.77983662951910548</v>
+      </c>
+      <c r="O11" t="s">
+        <v>44</v>
+      </c>
+      <c r="P11" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="10">
+        <v>78255</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -762,27 +1337,70 @@
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A13" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="K13" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="K15" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="L15" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="N15" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="O15" s="19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="K16" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="L16" s="15">
+        <f>SUMPRODUCT(--(allocationData[Cost Center]=$K16),allocationData[Allocation 01],allocationData[FTE],allocationData[Base Salary])</f>
+        <v>73790.713703061308</v>
+      </c>
+      <c r="M16" s="15">
+        <f>SUMPRODUCT(--(allocationData[Cost Center]=$K16),allocationData[Allocation 02],allocationData[FTE],allocationData[Base Salary])</f>
+        <v>55156.024899999989</v>
+      </c>
+      <c r="N16" s="15">
+        <f>SUMPRODUCT(--(allocationData[Cost Center]=$K16),allocationData[Allocation 03],allocationData[FTE],allocationData[Base Salary])</f>
+        <v>128881.2613969387</v>
+      </c>
+      <c r="O16" s="20">
+        <f>SUMPRODUCT(--(allocationData[Cost Center]=$K16),allocationData[FTE],allocationData[Base Salary])</f>
+        <v>257828</v>
+      </c>
+      <c r="P16" s="12"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B17" s="2" t="s">
         <v>13</v>
       </c>
@@ -790,62 +1408,108 @@
         <f>SUMPRODUCT((1/COUNTIF(salesData[Salesman],salesData[Salesman]&amp;"")))</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="K17" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="L17" s="15">
+        <f>SUMPRODUCT(--(allocationData[Cost Center]=$K17),allocationData[Allocation 01],allocationData[FTE],allocationData[Base Salary])</f>
+        <v>263326.86969701736</v>
+      </c>
+      <c r="M17" s="15">
+        <f>SUMPRODUCT(--(allocationData[Cost Center]=$K17),allocationData[Allocation 02],allocationData[FTE],allocationData[Base Salary])</f>
+        <v>93999.754300000001</v>
+      </c>
+      <c r="N17" s="15">
+        <f>SUMPRODUCT(--(allocationData[Cost Center]=$K17),allocationData[Allocation 03],allocationData[FTE],allocationData[Base Salary])</f>
+        <v>165324.37600298264</v>
+      </c>
+      <c r="O17" s="20">
+        <f>SUMPRODUCT(--(allocationData[Cost Center]=$K17),allocationData[FTE],allocationData[Base Salary])</f>
+        <v>522651</v>
+      </c>
+      <c r="P17" s="12"/>
+    </row>
+    <row r="18" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B18" s="5"/>
       <c r="C18" s="3"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="K18" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="L18" s="13">
+        <f t="shared" ref="L18:N18" si="0">SUM(L16:L17)</f>
+        <v>337117.5834000787</v>
+      </c>
+      <c r="M18" s="13">
+        <f t="shared" si="0"/>
+        <v>149155.77919999999</v>
+      </c>
+      <c r="N18" s="13">
+        <f t="shared" si="0"/>
+        <v>294205.63739992131</v>
+      </c>
+      <c r="O18" s="21">
+        <f>SUM(O16:O17)</f>
+        <v>780479</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="3"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="B25" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="B27" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="B28" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B28" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B30" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="2">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>